--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3389.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3389.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.501891421930721</v>
+        <v>1.698109865188599</v>
       </c>
       <c r="B1">
-        <v>2.531505430675206</v>
+        <v>6.696359157562256</v>
       </c>
       <c r="C1">
-        <v>2.875849327398587</v>
+        <v>2.797043323516846</v>
       </c>
       <c r="D1">
-        <v>3.405106324266988</v>
+        <v>1.569325089454651</v>
       </c>
       <c r="E1">
-        <v>2.98607038201322</v>
+        <v>1.21110463142395</v>
       </c>
     </row>
   </sheetData>
